--- a/Stability/wind_tunnel_test/REAL_wind_tunnel_test_matrix.xlsx
+++ b/Stability/wind_tunnel_test/REAL_wind_tunnel_test_matrix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louis\PycharmProjects\SVV\B50\DSE-Group16\Stability\wind_tunnel_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{438B60AC-4022-421B-8AEB-0ECCD59A990A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41FB8A87-3748-4A67-A88B-70547893B164}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="10">
   <si>
     <t>test series</t>
   </si>
@@ -41,6 +41,15 @@
   </si>
   <si>
     <t>index_testseries_alpha_Vpp_fburst_dutycycle</t>
+  </si>
+  <si>
+    <t>f_car</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>id</t>
   </si>
 </sst>
 </file>
@@ -69,7 +78,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -92,13 +101,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -406,12 +429,15 @@
   <dimension ref="A1:M266"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -426,6 +452,12 @@
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">

--- a/Stability/wind_tunnel_test/REAL_wind_tunnel_test_matrix.xlsx
+++ b/Stability/wind_tunnel_test/REAL_wind_tunnel_test_matrix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louis\PycharmProjects\SVV\B50\DSE-Group16\Stability\wind_tunnel_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41FB8A87-3748-4A67-A88B-70547893B164}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9333BD33-AE8F-4267-9147-8FF214B040D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="7">
   <si>
     <t>test series</t>
   </si>
@@ -38,15 +38,6 @@
   </si>
   <si>
     <t>X</t>
-  </si>
-  <si>
-    <t>index_testseries_alpha_Vpp_fburst_dutycycle</t>
-  </si>
-  <si>
-    <t>f_car</t>
-  </si>
-  <si>
-    <t>V</t>
   </si>
   <si>
     <t>id</t>
@@ -68,6 +59,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -121,7 +113,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -426,17 +418,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M266"/>
+  <dimension ref="A1:H266"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="G1" sqref="G1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -453,14 +445,10 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -480,7 +468,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>10</v>
       </c>
@@ -499,11 +487,8 @@
       <c r="F3" t="s">
         <v>5</v>
       </c>
-      <c r="M3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>20</v>
       </c>
@@ -523,7 +508,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>90</v>
       </c>
@@ -543,7 +528,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>185</v>
       </c>
@@ -563,7 +548,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>30</v>
       </c>
@@ -583,7 +568,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>109</v>
       </c>
@@ -603,7 +588,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>201</v>
       </c>
@@ -623,7 +608,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>40</v>
       </c>
@@ -643,7 +628,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>128</v>
       </c>
@@ -663,7 +648,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>217</v>
       </c>
@@ -683,7 +668,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>50</v>
       </c>
@@ -703,7 +688,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>147</v>
       </c>
@@ -723,7 +708,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>233</v>
       </c>
@@ -743,7 +728,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>60</v>
       </c>
